--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H2">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I2">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J2">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N2">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O2">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P2">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q2">
-        <v>1047.9334979925</v>
+        <v>1427.275158793509</v>
       </c>
       <c r="R2">
-        <v>9431.401481932502</v>
+        <v>12845.47642914158</v>
       </c>
       <c r="S2">
-        <v>0.4654242836627151</v>
+        <v>0.4876909193834649</v>
       </c>
       <c r="T2">
-        <v>0.4654242836627152</v>
+        <v>0.4876909193834649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H3">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I3">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J3">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.562536</v>
       </c>
       <c r="O3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P3">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q3">
-        <v>196.8052228414764</v>
+        <v>200.9604808836311</v>
       </c>
       <c r="R3">
-        <v>1771.247005573288</v>
+        <v>1808.64432795268</v>
       </c>
       <c r="S3">
-        <v>0.08740815141184724</v>
+        <v>0.06866692878248316</v>
       </c>
       <c r="T3">
-        <v>0.08740815141184728</v>
+        <v>0.06866692878248316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H4">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I4">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J4">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N4">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O4">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P4">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q4">
-        <v>58.28739679307255</v>
+        <v>42.92094824405778</v>
       </c>
       <c r="R4">
-        <v>524.5865711376531</v>
+        <v>386.28853419652</v>
       </c>
       <c r="S4">
-        <v>0.02588749185988364</v>
+        <v>0.01466581729597874</v>
       </c>
       <c r="T4">
-        <v>0.02588749185988364</v>
+        <v>0.01466581729597874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H5">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I5">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J5">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N5">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P5">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q5">
-        <v>4.257768378320778</v>
+        <v>8.416224337121667</v>
       </c>
       <c r="R5">
-        <v>38.319915404887</v>
+        <v>75.746019034095</v>
       </c>
       <c r="S5">
-        <v>0.00189102533822799</v>
+        <v>0.002875770771613477</v>
       </c>
       <c r="T5">
-        <v>0.00189102533822799</v>
+        <v>0.002875770771613477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>404.138192</v>
       </c>
       <c r="I6">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J6">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N6">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O6">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P6">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q6">
-        <v>612.7092877541137</v>
+        <v>817.2490152345404</v>
       </c>
       <c r="R6">
-        <v>5514.383589787024</v>
+        <v>7355.241137110864</v>
       </c>
       <c r="S6">
-        <v>0.2721258380352793</v>
+        <v>0.2792488338001171</v>
       </c>
       <c r="T6">
-        <v>0.2721258380352793</v>
+        <v>0.279248833800117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>2.562536</v>
       </c>
       <c r="O7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P7">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q7">
         <v>115.0687406638791</v>
@@ -886,10 +886,10 @@
         <v>1035.618665974912</v>
       </c>
       <c r="S7">
-        <v>0.05110609241717354</v>
+        <v>0.03931826290180921</v>
       </c>
       <c r="T7">
-        <v>0.05110609241717356</v>
+        <v>0.03931826290180921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N8">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O8">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P8">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q8">
-        <v>34.07967150829688</v>
+        <v>24.57627211492978</v>
       </c>
       <c r="R8">
-        <v>306.717043574672</v>
+        <v>221.186449034368</v>
       </c>
       <c r="S8">
-        <v>0.01513598594719532</v>
+        <v>0.008397557169620951</v>
       </c>
       <c r="T8">
-        <v>0.01513598594719533</v>
+        <v>0.008397557169620951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N9">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P9">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q9">
-        <v>2.489446358476444</v>
+        <v>4.819078514138666</v>
       </c>
       <c r="R9">
-        <v>22.405017226288</v>
+        <v>43.371706627248</v>
       </c>
       <c r="S9">
-        <v>0.001105651065005793</v>
+        <v>0.001646648732489715</v>
       </c>
       <c r="T9">
-        <v>0.001105651065005793</v>
+        <v>0.001646648732489715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H10">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I10">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J10">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N10">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O10">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P10">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q10">
-        <v>0.5546488693415556</v>
+        <v>1.976530459228333</v>
       </c>
       <c r="R10">
-        <v>4.991839824074</v>
+        <v>17.788774133055</v>
       </c>
       <c r="S10">
-        <v>0.0002463391552919667</v>
+        <v>0.000675367991176497</v>
       </c>
       <c r="T10">
-        <v>0.0002463391552919668</v>
+        <v>0.0006753679911764968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H11">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I11">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J11">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>2.562536</v>
       </c>
       <c r="O11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P11">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q11">
-        <v>0.1041648105902222</v>
+        <v>0.2782956804933333</v>
       </c>
       <c r="R11">
-        <v>0.9374832953119999</v>
+        <v>2.50466112444</v>
       </c>
       <c r="S11">
-        <v>4.626327190102243E-05</v>
+        <v>9.509187870611311E-05</v>
       </c>
       <c r="T11">
-        <v>4.626327190102244E-05</v>
+        <v>9.509187870611311E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H12">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N12">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O12">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P12">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q12">
-        <v>0.03085027703577778</v>
+        <v>0.05943812657333333</v>
       </c>
       <c r="R12">
-        <v>0.277652493322</v>
+        <v>0.53494313916</v>
       </c>
       <c r="S12">
-        <v>1.370169778681504E-05</v>
+        <v>2.030963295086217E-05</v>
       </c>
       <c r="T12">
-        <v>1.370169778681504E-05</v>
+        <v>2.030963295086217E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H13">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1240,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N13">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P13">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q13">
-        <v>0.002253546070888889</v>
+        <v>0.011655022265</v>
       </c>
       <c r="R13">
-        <v>0.020281914638</v>
+        <v>0.104895200385</v>
       </c>
       <c r="S13">
-        <v>1.000879414346094E-06</v>
+        <v>3.982447595218703E-06</v>
       </c>
       <c r="T13">
-        <v>1.000879414346094E-06</v>
+        <v>3.982447595218702E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H14">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I14">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J14">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N14">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O14">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P14">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q14">
-        <v>143.1406019322643</v>
+        <v>239.3963989692694</v>
       </c>
       <c r="R14">
-        <v>1288.265417390379</v>
+        <v>2154.567590723425</v>
       </c>
       <c r="S14">
-        <v>0.06357379761692737</v>
+        <v>0.08180023956214931</v>
       </c>
       <c r="T14">
-        <v>0.06357379761692739</v>
+        <v>0.08180023956214932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H15">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I15">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J15">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.562536</v>
       </c>
       <c r="O15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P15">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q15">
-        <v>26.88225742846133</v>
+        <v>33.7070362097111</v>
       </c>
       <c r="R15">
-        <v>241.940316856152</v>
+        <v>303.3633258873999</v>
       </c>
       <c r="S15">
-        <v>0.01193936011287603</v>
+        <v>0.0115174816695482</v>
       </c>
       <c r="T15">
-        <v>0.01193936011287604</v>
+        <v>0.01151748166954821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H16">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I16">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J16">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N16">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O16">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P16">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q16">
-        <v>7.961662718109666</v>
+        <v>7.199116713177776</v>
       </c>
       <c r="R16">
-        <v>71.654964462987</v>
+        <v>64.7920504186</v>
       </c>
       <c r="S16">
-        <v>0.00353605565089671</v>
+        <v>0.002459892773280224</v>
       </c>
       <c r="T16">
-        <v>0.003536055650896711</v>
+        <v>0.002459892773280225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H17">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N17">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P17">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q17">
-        <v>0.5815822566303332</v>
+        <v>1.411650575441666</v>
       </c>
       <c r="R17">
-        <v>5.234240309672999</v>
+        <v>12.704855178975</v>
       </c>
       <c r="S17">
-        <v>0.0002583012239819205</v>
+        <v>0.0004823520978024286</v>
       </c>
       <c r="T17">
-        <v>0.0002583012239819205</v>
+        <v>0.0004823520978024286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H18">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I18">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J18">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.548265666666667</v>
+        <v>6.066605666666667</v>
       </c>
       <c r="N18">
-        <v>13.644797</v>
+        <v>18.199817</v>
       </c>
       <c r="O18">
-        <v>0.8016112714390143</v>
+        <v>0.8497846287916651</v>
       </c>
       <c r="P18">
-        <v>0.8016112714390145</v>
+        <v>0.8497846287916652</v>
       </c>
       <c r="Q18">
-        <v>0.5426566088671111</v>
+        <v>1.080699066854333</v>
       </c>
       <c r="R18">
-        <v>4.883909479804</v>
+        <v>9.726291601689001</v>
       </c>
       <c r="S18">
-        <v>0.0002410129688006413</v>
+        <v>0.0003692680547572628</v>
       </c>
       <c r="T18">
-        <v>0.0002410129688006414</v>
+        <v>0.0003692680547572627</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H19">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I19">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J19">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>2.562536</v>
       </c>
       <c r="O19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="P19">
-        <v>0.1505451302110428</v>
+        <v>0.1196497582104962</v>
       </c>
       <c r="Q19">
-        <v>0.1019126261724444</v>
+        <v>0.1521625335013333</v>
       </c>
       <c r="R19">
-        <v>0.917213635552</v>
+        <v>1.369462801512</v>
       </c>
       <c r="S19">
-        <v>4.526299724492201E-05</v>
+        <v>5.199297794947371E-05</v>
       </c>
       <c r="T19">
-        <v>4.526299724492202E-05</v>
+        <v>5.199297794947371E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H20">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I20">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J20">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2529803333333333</v>
+        <v>0.1824346666666667</v>
       </c>
       <c r="N20">
-        <v>0.758941</v>
+        <v>0.547304</v>
       </c>
       <c r="O20">
-        <v>0.0445866406042682</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="P20">
-        <v>0.04458664060426821</v>
+        <v>0.02555468148257719</v>
       </c>
       <c r="Q20">
-        <v>0.03018325222355555</v>
+        <v>0.03249872908533333</v>
       </c>
       <c r="R20">
-        <v>0.271649270012</v>
+        <v>0.292488561768</v>
       </c>
       <c r="S20">
-        <v>1.340544850572182E-05</v>
+        <v>1.110461074640855E-05</v>
       </c>
       <c r="T20">
-        <v>1.340544850572182E-05</v>
+        <v>1.110461074640854E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H21">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I21">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J21">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01847966666666667</v>
+        <v>0.035773</v>
       </c>
       <c r="N21">
-        <v>0.055439</v>
+        <v>0.107319</v>
       </c>
       <c r="O21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261538</v>
       </c>
       <c r="P21">
-        <v>0.003256957745674598</v>
+        <v>0.005010931515261539</v>
       </c>
       <c r="Q21">
-        <v>0.002204821349777778</v>
+        <v>0.006372566447000001</v>
       </c>
       <c r="R21">
-        <v>0.019843392148</v>
+        <v>0.057353098023</v>
       </c>
       <c r="S21">
-        <v>9.792390445485377E-07</v>
+        <v>2.177465760699389E-06</v>
       </c>
       <c r="T21">
-        <v>9.79239044548538E-07</v>
+        <v>2.177465760699389E-06</v>
       </c>
     </row>
   </sheetData>
